--- a/src/Excel/AltaCuentaAhorro.xlsx
+++ b/src/Excel/AltaCuentaAhorro.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444768BE-3B96-437D-A483-B2AEE1EB11AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3776306-C2E4-4B58-9C65-A966F20DC9E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Usuario</t>
   </si>
@@ -44,33 +44,12 @@
     <t>Estado</t>
   </si>
   <si>
-    <t>SCIS</t>
-  </si>
-  <si>
     <t>Fecha</t>
   </si>
   <si>
     <t>Transaccion</t>
   </si>
   <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t>3 mar. 2023, 15:12:31</t>
-  </si>
-  <si>
-    <t>3 mar. 2023, 15:12:36</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>3 mar. 2023, 15:21:53</t>
-  </si>
-  <si>
-    <t>3 mar. 2023, 15:21:59</t>
-  </si>
-  <si>
     <t>AAACT230621L2CHVK</t>
   </si>
   <si>
@@ -80,7 +59,10 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>3 mar. 2023, 15:29:59</t>
+    <t>AAACT230651LCR7J8</t>
+  </si>
+  <si>
+    <t>6 mar. 2023, 11:18:57</t>
   </si>
 </sst>
 </file>
@@ -151,14 +133,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
+          <bgColor theme="6" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -496,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A91A77-E5B6-4AE4-A13D-A81F28ECF0AB}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -529,10 +511,10 @@
         <v>8</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -549,42 +531,19 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
         <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="FAILED">
-      <formula>NOT(ISERROR(SEARCH("FAILED",A1)))</formula>
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="PASSED">
+      <formula>NOT(ISERROR(SEARCH("PASSED",A1)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -594,8 +553,8 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="PASSED">
-      <formula>NOT(ISERROR(SEARCH("PASSED",A1)))</formula>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="FAILED">
+      <formula>NOT(ISERROR(SEARCH("FAILED",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/Excel/AltaCuentaAhorro.xlsx
+++ b/src/Excel/AltaCuentaAhorro.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Usuario</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>6 mar. 2023, 11:18:57</t>
+  </si>
+  <si>
+    <t>AAACT23065VQKJMJ4</t>
+  </si>
+  <si>
+    <t>6 mar. 2023, 14:12:05</t>
   </si>
 </sst>
 </file>
@@ -534,10 +540,10 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/AltaCuentaAhorro.xlsx
+++ b/src/Excel/AltaCuentaAhorro.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3776306-C2E4-4B58-9C65-A966F20DC9E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DEA11A-91BE-4FCE-BD9C-9AE738BA041D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Usuario</t>
   </si>
@@ -50,32 +50,19 @@
     <t>Transaccion</t>
   </si>
   <si>
-    <t>AAACT230621L2CHVK</t>
-  </si>
-  <si>
-    <t>3 mar. 2023, 15:29:51</t>
-  </si>
-  <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>AAACT230651LCR7J8</t>
-  </si>
-  <si>
-    <t>6 mar. 2023, 11:18:57</t>
-  </si>
-  <si>
-    <t>AAACT23065VQKJMJ4</t>
-  </si>
-  <si>
-    <t>6 mar. 2023, 14:12:05</t>
+    <t>AAACT23066XNW7Z87</t>
+  </si>
+  <si>
+    <t>7 mar. 2023, 10:06:06</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -487,17 +474,17 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="12.08984375" collapsed="true"/>
-    <col min="2" max="4" style="1" width="10.90625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="12.7265625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="18.6328125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="18.7265625" collapsed="true"/>
-    <col min="8" max="16384" style="1" width="10.90625" collapsed="true"/>
+    <col min="1" max="1" width="12.08984375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="4" width="10.90625" style="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="10.90625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -537,13 +524,13 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
